--- a/Requirement List & Actor Description.xlsx
+++ b/Requirement List & Actor Description.xlsx
@@ -3,7 +3,7 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.0" lowestEdited="9.0" rupBuild="0.568"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12210" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12120" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Actor Description" sheetId="1" r:id="rId4"/>
@@ -15,243 +15,249 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+  <x:si>
+    <x:t>판매 의류 조회를 통해 얻은 판매의류 리스트에서 특정 상품을 선택한 후에 그 상품에 대한 모든 항목을 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매 시 상품에 할당된 추가상품을 선택하여 추가 상품의 금액만큼 증가된 가격으로 구매할 수 있음</x:t>
+  </x:si>
   <x:si>
     <x:t>회원가입 버튼을 눌러 회원 정보(이름,주민번호,주소,이메일,ID,PW)를 입력하여 회원가입을 진행 후, 사용자에게 의류 쇼핑 사이트 사용 권한을 부여</x:t>
   </x:si>
   <x:si>
+    <x:t>의류 쇼핑 사이트에 회원가입을 하지 않아 사용 권한이 없는 고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 중복 ID, 비밀번호 기준 등 유효성 검사 시행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가상품 구매 시 기존상품과 가격이 합산되어 결제되어야 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매한 상품에 대한 환불 신청은 구매 날짜로부터 4주 이내여야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼을 눌러 사용자 인증 해제 후 프로그램 자동 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 시 남은 포인트가 3000점 이상일 경우 포인트 사용 버튼을 눌러 포인트를 사용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 구매 만족도순 정렬 버튼을 누르면 상품 정보 조회 리스트의 정렬 기준을 평균 구매만족도로 바꿈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 쇼핑 사이트에서 사용자가 상품을 구매 시 자동으로 결제금액의 1%를 포인트로 적립해주는 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 상품 환불 신청 시 자동으로 소모한 포인트 반환과 택배사에 물품 수거 신청을 보내는 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 말 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 자동 공지하는 이벤트</x:t>
+  </x:si>
+  <x:si>
     <x:t>판매할 의류에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 저장하는 데이터베이스</x:t>
   </x:si>
   <x:si>
+    <x:t>통계보기 버튼을 눌러 회원이 판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도를 출력. 삭제된 구매 내역은 통계에서 제외함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물품 수거 신청 요청을 받음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 완료된 상품 내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 구매 만족도순 정렬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 말일에 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 공지함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 쇼핑 사이트에 회원가입을 하여 로그인을 통해 시스템을 사용할 권한이 있는 고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 시 하나의 상품을 선택하여 구매만족도를 평가할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환불 신청한 상품에 대해 택배사에 자동으로 물품 수거 신청이 요청됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 환불 시 포인트를 사용하여 결제 했다면 사용한 포인트를 돌려받음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID와 PW를 입력하여 사용자 인증을 통해 클라이언트의 접속 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회 버튼을 눌러 자신이 등록한 의류 상품의 리스트 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 정보 조회 리스트에서 원하는 상품을 선택하면 해당 상품의 상세한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일, 평균 구매만족도)가 출력되며 즉시 결제한 후 구매할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>택배사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 시 3개월이 지난 구매 거래내역은 구매내역삭제 버튼을 눌러 임의로 삭제하며, 그 이전의 구매내역은 임의로 삭제할 수 없음.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 조건(상품명, 평균 구매만족도) 중 하나를 선택하여 입력하면 이에 해당하는 상품 리스트를 상품명의 오름차순으로 출력하여 알아보기 쉽게 함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도에 대한 통계를 구할 수 있는 데이터베이스 환경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 버튼을 눌러 구매내역 정보(상품명, 제작회사명, 판매자, 가격, 평균 구매만족도, 구매일)를 조회할 수 있다. 이 때 상품명의 오름차순으로 정렬해서 출력함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로그램을 구동하는 서버의 안정성과 속도가 보장되어야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 시 구매대금이 판매자에게 올바르게 전달되어야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원이 판매할 상품에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 입력하여 프로그램에 등록함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 시 결제 대금의 1%를 포인트로 자동 적립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6개월이 지난 구매 거래내역은 자동 삭제됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보를 저장하고 관리하는 데이터베이스와 서버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Actor Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 말일 이메일 발송 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 팀 내 버전컨트롤을 위한 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requirement List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 판매 및 구매 통계 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매내역에서 구입 후 6개월이 지난 거래내역을 자동으로 삭제하는 이벤트</x:t>
+  </x:si>
+  <x:si>
     <x:t>환불 신청 시 택배사에 자동으로 물품 수거 신청할 수 있도록 인터페이스 확립</x:t>
   </x:si>
   <x:si>
-    <x:t>상품 구매내역에서 구입 후 6개월이 지난 거래내역을 자동으로 삭제하는 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매 시 상품에 할당된 추가상품을 선택하여 추가 상품의 금액만큼 증가된 가격으로 구매할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회를 통해 얻은 판매의류 리스트에서 특정 상품을 선택한 후에 그 상품에 대한 모든 항목을 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계보기 버튼을 눌러 회원이 판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도를 출력. 삭제된 구매 내역은 통계에서 제외함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 말일에 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 공지함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 쇼핑 사이트에 회원가입을 하여 로그인을 통해 시스템을 사용할 권한이 있는 고객</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID와 PW를 입력하여 사용자 인증을 통해 클라이언트의 접속 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회 버튼을 눌러 자신이 등록한 의류 상품의 리스트 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환불 신청한 상품에 대해 택배사에 자동으로 물품 수거 신청이 요청됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 환불 시 포인트를 사용하여 결제 했다면 사용한 포인트를 돌려받음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회 시 하나의 상품을 선택하여 구매만족도를 평가할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원이 판매할 상품에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 입력하여 프로그램에 등록함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 팀 내 버전컨트롤을 위한 툴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirement List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actor Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 말일 이메일 발송 event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 판매 및 구매 통계 출력</x:t>
-  </x:si>
-  <x:si>
     <x:t>판매 완료된 상품 내역 조회 버튼을 눌러 회원의 판매 상품 중 판매 종료일이 지났거나 남은 수량이 0이 된 상품을 조회</x:t>
   </x:si>
   <x:si>
-    <x:t>프로그램을 구동하는 서버의 안정성과 속도가 보장되어야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 시 구매대금이 판매자에게 올바르게 전달되어야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회 버튼을 눌러 구매내역 정보(상품명, 제작회사명, 판매자, 가격, 평균 구매만족도, 구매일)를 조회할 수 있다. 이 때 상품명의 오름차순으로 정렬해서 출력함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 시 남은 포인트가 3000점 이상일 경우 포인트 사용 버튼을 눌러 포인트를 사용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 구매 만족도순 정렬 버튼을 누르면 상품 정보 조회 리스트의 정렬 기준을 평균 구매만족도로 바꿈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 쇼핑 사이트에서 사용자가 상품을 구매 시 자동으로 결제금액의 1%를 포인트로 적립해주는 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 상품 환불 신청 시 자동으로 소모한 포인트 반환과 택배사에 물품 수거 신청을 보내는 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 말 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 자동 공지하는 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 시 결제 대금의 1%를 포인트로 자동 적립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6개월이 지난 구매 거래내역은 자동 삭제됨.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보를 저장하고 관리하는 데이터베이스와 서버</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 쇼핑 사이트에 회원가입을 하지 않아 사용 권한이 없는 고객</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼을 눌러 사용자 인증 해제 후 프로그램 자동 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 중복 ID, 비밀번호 기준 등 유효성 검사 시행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가상품 구매 시 기존상품과 가격이 합산되어 결제되어야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매한 상품에 대한 환불 신청은 구매 날짜로부터 4주 이내여야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도에 대한 통계를 구할 수 있는 데이터베이스 환경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회 시 3개월이 지난 구매 거래내역은 구매내역삭제 버튼을 눌러 임의로 삭제하며, 그 이전의 구매내역은 임의로 삭제할 수 없음.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색 조건(상품명, 평균 구매만족도) 중 하나를 선택하여 입력하면 이에 해당하는 상품 리스트를 상품명의 오름차순으로 출력하여 알아보기 쉽게 함</x:t>
+    <x:t>판매 의류 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use Case(s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 만족도 평가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requirement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>use case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매내역 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물품 수거 신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 환불 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 적립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가상품구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 환불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 환불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Actor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6개월이 지난 구매내역은 자동으로 삭제함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6개월이 지난 거래 내역 삭제 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록한 상품이 하나도 없는 회원은 회원 탈퇴 버튼을 눌러 회원의 시스템 사용 권한 소멸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 쇼핑 사이트의 회원으로서 시스템의 모든 기능(판매, 구매 등)을 사용할 수 있는 고객</x:t>
   </x:si>
   <x:si>
     <x:t>구매내역 조회 시 구입 후 4주가 지나지 않은 하나의 상품을 선택하여 환불을 신청할 수 있음</x:t>
   </x:si>
   <x:si>
-    <x:t>등록한 상품이 하나도 없는 회원은 회원 탈퇴 버튼을 눌러 회원의 시스템 사용 권한 소멸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 쇼핑 사이트의 회원으로서 시스템의 모든 기능(판매, 구매 등)을 사용할 수 있는 고객</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 적립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가상품구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 환불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 환불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 정보 조회 리스트에서 원하는 상품을 선택하면 해당 상품의 상세한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일, 평균 구매만족도)가 출력되며 즉시 결제한 후 구매할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6개월이 지난 구매내역은 자동으로 삭제함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6개월이 지난 거래 내역 삭제 event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>택배사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 구매 만족도순 정렬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물품 수거 신청 요청을 받음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 완료된 상품 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use Case(s)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 만족도 평가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>use case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매내역 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물품 수거 신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 환불 event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매 event</x:t>
+    <x:t>판매 의류 조회를 통해 얻은 판매의류 리스트에서 특정 상품을 선택한 후에 그 상품을 삭제</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -542,7 +548,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -587,7 +592,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -664,7 +668,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -703,7 +706,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -726,7 +728,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -759,7 +760,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -807,7 +807,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -863,7 +862,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -898,7 +896,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -931,7 +928,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -954,7 +950,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -988,7 +983,7 @@
       </x:fill>
     </x:dxf>
   </x:dxfs>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <x:tableStyle name="PivotStyleLight16" pivot="1" table="0" count="11">
       <x:tableStyleElement type="headerRow" size="1" dxfId="0"/>
       <x:tableStyleElement type="totalRow" size="1" dxfId="1"/>
@@ -1312,7 +1307,7 @@
       <x:selection activeCell="E9" activeCellId="0" sqref="E9:E9"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="21.600000000000001"/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="8.796875" style="4"/>
     <x:col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
@@ -1320,117 +1315,117 @@
     <x:col min="4" max="16384" width="8.796875" style="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" customHeight="1">
+    <x:row r="1" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>17</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
     </x:row>
-    <x:row r="2" spans="1:3" customHeight="1">
+    <x:row r="2" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A2" s="5" t="s">
-        <x:v>57</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>47</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C2" s="13" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" customHeight="1">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A3" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" customHeight="1">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A4" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>8</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" customHeight="1">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A5" s="9">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>61</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>42</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" customHeight="1">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A6" s="9">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>78</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>26</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" customHeight="1">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A7" s="9">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>77</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3" customHeight="1">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A8" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>64</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3" customHeight="1">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A9" s="9">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3" customHeight="1">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A10" s="9">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>28</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
     <x:mergeCell ref="A1:C1"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1440,11 +1435,11 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:C14"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="B14" activeCellId="0" sqref="B14:B14"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="C12" activeCellId="0" sqref="C12:C12"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="31.050000000000001"/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="8.796875" style="4"/>
     <x:col min="2" max="2" width="73.3984375" style="3" customWidth="1"/>
@@ -1452,127 +1447,125 @@
     <x:col min="4" max="16384" width="8.796875" style="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" customHeight="1">
+    <x:row r="1" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
     </x:row>
-    <x:row r="2" spans="1:3" customHeight="1">
+    <x:row r="2" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A2" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="10" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B2" s="10" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>73</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" customHeight="1">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A3" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C3" s="7"/>
     </x:row>
-    <x:row r="4" spans="1:3" customHeight="1">
+    <x:row r="4" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A4" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>34</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C4" s="7"/>
     </x:row>
-    <x:row r="5" spans="1:3" customHeight="1">
+    <x:row r="5" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A5" s="9">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>1</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C5" s="7"/>
     </x:row>
-    <x:row r="6" spans="1:3" customHeight="1">
+    <x:row r="6" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A6" s="9">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>15</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C6" s="7"/>
     </x:row>
-    <x:row r="7" spans="1:3" customHeight="1">
+    <x:row r="7" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A7" s="9">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>21</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C7" s="7"/>
     </x:row>
-    <x:row r="8" spans="1:3" customHeight="1">
+    <x:row r="8" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A8" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>22</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C8" s="7"/>
     </x:row>
-    <x:row r="9" spans="1:3" customHeight="1">
+    <x:row r="9" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A9" s="9">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="7"/>
     </x:row>
-    <x:row r="10" spans="1:3" customHeight="1">
+    <x:row r="10" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A10" s="9">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C10" s="7"/>
     </x:row>
-    <x:row r="11" spans="1:3" customHeight="1">
+    <x:row r="11" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A11" s="9">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="11" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C11" s="7"/>
     </x:row>
-    <x:row r="12" spans="1:3" customHeight="1">
+    <x:row r="12" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A12" s="9">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="11" t="s">
-        <x:v>2</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C12" s="7"/>
     </x:row>
-    <x:row r="13" spans="1:3" customHeight="1">
+    <x:row r="13" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A13" s="9">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C13" s="7"/>
     </x:row>
-    <x:row r="14" spans="1:3" customHeight="1">
-      <x:c r="A14" s="9">
-        <x:v>12</x:v>
-      </x:c>
+    <x:row r="14" spans="1:3" ht="31.050000000000001" customHeight="1">
+      <x:c r="A14" s="9"/>
       <x:c r="B14" s="11"/>
       <x:c r="C14" s="7"/>
     </x:row>
@@ -1580,7 +1573,7 @@
   <x:mergeCells count="1">
     <x:mergeCell ref="A1:C1"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1588,13 +1581,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet3"/>
-  <x:dimension ref="A1:C25"/>
+  <x:dimension ref="A1:C26"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="B10" activeCellId="0" sqref="B10:B10"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="31.050000000000001"/>
+  <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="8.796875" style="4"/>
     <x:col min="2" max="2" width="78.5" style="2" customWidth="1"/>
@@ -1603,280 +1596,291 @@
     <x:col min="5" max="16384" width="8.796875" style="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3" customHeight="1">
+    <x:row r="1" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
     </x:row>
-    <x:row r="2" spans="1:3" customHeight="1">
+    <x:row r="2" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A2" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B2" s="6" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="B2" s="6" t="s">
-        <x:v>68</x:v>
-      </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>67</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3" customHeight="1">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A3" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:3" customHeight="1">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A4" s="9">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:3" customHeight="1">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A5" s="9">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" customHeight="1">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A6" s="9">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:3" customHeight="1">
+        <x:v>74</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A7" s="9">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>66</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3" customHeight="1">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A8" s="9">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3" customHeight="1">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A9" s="9">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>5</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>71</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3" customHeight="1">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3" s="1" customFormat="1" ht="31.050000000000001" customHeight="1">
       <x:c r="A10" s="9">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>65</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:3" customHeight="1">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A11" s="9">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>70</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:3" customHeight="1">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A12" s="9">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:3" customHeight="1">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A13" s="9">
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3" customHeight="1">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A14" s="9">
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="8" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3" customHeight="1">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A15" s="9">
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3" customHeight="1">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A16" s="9">
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="8" t="s">
-        <x:v>12</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3" customHeight="1">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A17" s="9">
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3" customHeight="1">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A18" s="9">
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:3" customHeight="1">
+        <x:v>66</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A19" s="9">
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>13</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>72</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:3" customHeight="1">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A20" s="9">
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3" customHeight="1">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A21" s="9">
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>75</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:3" customHeight="1">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A22" s="9">
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="8" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C22" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3" customHeight="1">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C22" s="7" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A23" s="9">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="8" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C23" s="16"/>
-    </x:row>
-    <x:row r="24" spans="1:3" customHeight="1">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C23" s="15" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A24" s="9">
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="8" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C24" s="15" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:3" customHeight="1">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C24" s="16"/>
+    </x:row>
+    <x:row r="25" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A25" s="9">
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="8" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C25" s="16"/>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C25" s="15" t="s">
+        <x:v>47</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3" ht="31.050000000000001" customHeight="1">
+      <x:c r="A26" s="9">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B26" s="8" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C26" s="16"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
     <x:mergeCell ref="A1:C1"/>
-    <x:mergeCell ref="C24:C25"/>
-    <x:mergeCell ref="C22:C23"/>
+    <x:mergeCell ref="C25:C26"/>
+    <x:mergeCell ref="C23:C24"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
--- a/Requirement List & Actor Description.xlsx
+++ b/Requirement List & Actor Description.xlsx
@@ -3,41 +3,48 @@
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:fileVersion appName="HCell" lastEdited="9.0" lowestEdited="9.0" rupBuild="0.568"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12120" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28395" windowHeight="12120" activeTab="3"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Actor Description" sheetId="1" r:id="rId4"/>
     <x:sheet name="Requirement List(Non-func)" sheetId="2" r:id="rId5"/>
     <x:sheet name="Requirement List(func)" sheetId="3" r:id="rId6"/>
+    <x:sheet name="Use-Case-Description" sheetId="4" r:id="rId7"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="4294967295"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
+  <x:si>
+    <x:t>구매내역 조회 화면으로 전환 후 사용자가 구매한 상품의 사진, 상품명, 제작회사명, 판매자, 가격, 평균 구매만족도, 구매일을 출력한다. 상품명의 오름차순으로 상품을 정렬하여 출력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색어를 포함하는 상품 또는 검색어보다 높은 평균 구매만족도를 가지는 상품 리스트 출력. 메인화면 중앙에 상품의 사진, 상품명, 제작회사명, 판매자, 가격을 상품명의 오름차순으로 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매 시 상품에 할당된 추가상품을 선택하여 추가 상품의 금액만큼 증가된 가격으로 구매할 수 있음</x:t>
+  </x:si>
   <x:si>
     <x:t>판매 의류 조회를 통해 얻은 판매의류 리스트에서 특정 상품을 선택한 후에 그 상품에 대한 모든 항목을 수정</x:t>
   </x:si>
   <x:si>
-    <x:t>상품 구매 시 상품에 할당된 추가상품을 선택하여 추가 상품의 금액만큼 증가된 가격으로 구매할 수 있음</x:t>
-  </x:si>
-  <x:si>
     <x:t>회원가입 버튼을 눌러 회원 정보(이름,주민번호,주소,이메일,ID,PW)를 입력하여 회원가입을 진행 후, 사용자에게 의류 쇼핑 사이트 사용 권한을 부여</x:t>
   </x:si>
   <x:si>
+    <x:t>추가상품 구매 시 기존상품과 가격이 합산되어 결제되어야 함</x:t>
+  </x:si>
+  <x:si>
     <x:t>의류 쇼핑 사이트에 회원가입을 하지 않아 사용 권한이 없는 고객</x:t>
   </x:si>
   <x:si>
+    <x:t>구매한 상품에 대한 환불 신청은 구매 날짜로부터 4주 이내여야함</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원 가입시 중복 ID, 비밀번호 기준 등 유효성 검사 시행</x:t>
   </x:si>
   <x:si>
-    <x:t>추가상품 구매 시 기존상품과 가격이 합산되어 결제되어야 함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매한 상품에 대한 환불 신청은 구매 날짜로부터 4주 이내여야함</x:t>
-  </x:si>
-  <x:si>
     <x:t>로그아웃 버튼을 눌러 사용자 인증 해제 후 프로그램 자동 종료</x:t>
   </x:si>
   <x:si>
@@ -47,73 +54,257 @@
     <x:t>평균 구매 만족도순 정렬 버튼을 누르면 상품 정보 조회 리스트의 정렬 기준을 평균 구매만족도로 바꿈</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자가 상품 환불 신청 시 자동으로 소모한 포인트 반환과 택배사에 물품 수거 신청을 보내는 이벤트</x:t>
+  </x:si>
+  <x:si>
     <x:t>의류 쇼핑 사이트에서 사용자가 상품을 구매 시 자동으로 결제금액의 1%를 포인트로 적립해주는 이벤트</x:t>
   </x:si>
   <x:si>
-    <x:t>사용자가 상품 환불 신청 시 자동으로 소모한 포인트 반환과 택배사에 물품 수거 신청을 보내는 이벤트</x:t>
+    <x:t>판매 의류 조회 화면으로 전환 후 사용자DB의 판매 의류 목록에 있는 상품들에 대한
+정보를 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트가 3000p미만이면 포인트 사용 토글이 비활성화 되며 클릭할 수 없게 된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디를 회원 DB에서 탐색 후 중복이 아니라면
+비밀번호부터 입력 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면 중앙의 상품 리스트에서 상품의
+ 사진 또는 상품명 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매할 의류에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 저장하는 데이터베이스</x:t>
   </x:si>
   <x:si>
     <x:t>매월 말 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 자동 공지하는 이벤트</x:t>
   </x:si>
   <x:si>
-    <x:t>판매할 의류에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 저장하는 데이터베이스</x:t>
+    <x:t>상품 정보 조회 리스트에서 원하는 상품을 선택하면 해당 상품의 상세한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일, 평균 구매만족도)가 출력되며 즉시 결제한 후 구매할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매완료된 상품내역 조회 화면으로 전환 후 판매 종료일이 지났거나 남은 수량이 0이 된 상품 출력 
+내역은 상품명의 오름차순으로 정렬해서 출력하며 각 상품에 대해 상품명, 제작회사명, 가격, 판매된 수량, 평균 구매만족도를 출력</x:t>
   </x:si>
   <x:si>
     <x:t>통계보기 버튼을 눌러 회원이 판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도를 출력. 삭제된 구매 내역은 통계에서 제외함</x:t>
   </x:si>
   <x:si>
+    <x:t>의류 쇼핑 사이트에 회원가입을 하여 로그인을 통해 시스템을 사용할 권한이 있는 고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 말일에 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 공지함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>택배사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 후 4주가 지난 상품의 경우 환불하기 버튼이 비활성화되며 환불을 진행할 수 없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 쇼핑 사이트에서 사용자가 상품을 구매 시 결제 시스템이 연동되며 결제 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 완료된 상품 내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 구매 만족도순 정렬</x:t>
+  </x:si>
+  <x:si>
     <x:t>물품 수거 신청 요청을 받음</x:t>
   </x:si>
   <x:si>
-    <x:t>판매 완료된 상품 내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 구매 만족도순 정렬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 말일에 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 공지함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 쇼핑 사이트에 회원가입을 하여 로그인을 통해 시스템을 사용할 권한이 있는 고객</x:t>
+    <x:t>구매내역 조회 시 구입 후 4주가 지나지 않은 하나의 상품을 선택하여 환불을 신청할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회를 통해 얻은 판매의류 리스트에서 특정 상품을 선택한 후에 그 상품을 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록한 상품이 하나도 없는 회원은 회원 탈퇴 버튼을 눌러 회원의 시스템 사용 권한 소멸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 쇼핑 사이트의 회원으로서 시스템의 모든 기능(판매, 구매 등)을 사용할 수 있는 고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alternative Courses Step 3-4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alternative Courses Step 2-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 Actor는 메인화면에서 회원탈퇴 버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면에서 비회원 Actor가 회원가입 버튼을 누름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 Actor는 회원탈퇴불가 팝업창에서 닫기버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 구매내역조회 버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alternative Courses Step 3-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alternative Courses Step 5-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 표출된 상품을 평균 구매 만족도의 오름차순으로 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alternative Courses Step 11-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품사진 혹은 추가상품사진의 사진 등록하기버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정렬조건인 상품명, 구매만족도 버튼이 탭이 펼쳐지며 표출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alternative Courses Step 9-10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 화면에서 구매만족도 평가하기 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로그램을 구동하는 서버의 안정성과 속도가 보장되어야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색조건인 상품명, 구매만족도 버튼이 탭이 펼쳐지며 표출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 시 구매대금이 판매자에게 올바르게 전달되어야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 클릭한 검색조건으로 현재 검색조건 업데이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">등록한 상품이 하나라도 있다면 회원탈퇴불가 팝업창 출력
+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색조건 탭에서 상품명, 구매만족도 버튼 중 하나를 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보를 회원 DB에 저장 후 로그인 화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원이 판매할 상품에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 입력하여 프로그램에 등록함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 등록 화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requirement List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Actor Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발 팀 내 버전컨트롤을 위한 툴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 판매 및 구매 통계 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 말일 이메일 발송 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가상품이 없어 추가상품 여부를 체크하지 않은경우 추가상품명, 추가상품가격,
+ 추가상품수량 입력하지 않아도 등록 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 완료된 상품 내역 조회 버튼을 눌러 회원의 판매 상품 중 판매 종료일이 지났거나 남은 수량이 0이 된 상품을 조회</x:t>
   </x:si>
   <x:si>
     <x:t>구매내역 조회 시 하나의 상품을 선택하여 구매만족도를 평가할 수 있음</x:t>
   </x:si>
   <x:si>
+    <x:t>상품 환불 시 포인트를 사용하여 결제 했다면 사용한 포인트를 돌려받음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID와 PW를 입력하여 사용자 인증을 통해 클라이언트의 접속 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회 버튼을 눌러 자신이 등록한 의류 상품의 리스트 조회</x:t>
+  </x:si>
+  <x:si>
     <x:t>환불 신청한 상품에 대해 택배사에 자동으로 물품 수거 신청이 요청됨</x:t>
   </x:si>
   <x:si>
-    <x:t>상품 환불 시 포인트를 사용하여 결제 했다면 사용한 포인트를 돌려받음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID와 PW를 입력하여 사용자 인증을 통해 클라이언트의 접속 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회 버튼을 눌러 자신이 등록한 의류 상품의 리스트 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 정보 조회 리스트에서 원하는 상품을 선택하면 해당 상품의 상세한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일, 평균 구매만족도)가 출력되며 즉시 결제한 후 구매할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>택배사</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비회원</x:t>
+    <x:t>비밀번호, 이름, 주민번호, 주소, 이메일 입력 후 회원가입 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 판매완료된 상품 내역 조회 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매내역에서 구입 후 6개월이 지난 거래내역을 자동으로 삭제하는 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환불 신청 시 택배사에 자동으로 물품 수거 신청할 수 있도록 인터페이스 확립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매의류 삭제 버튼을 눌러 해당 상품에 대한 정보를 판매 의류목록에서 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가상품이 없다면 추가상품 구매 토글이 비활성화 되며 클릭할 수 없게 된다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록한 상품이 없다면 회원 DB에서 회원 삭제 후 회원의 시스템 사용권한 소멸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 상품 통계 화면으로 전환.  현재까지 판매한 모든 상품에 대한 총액 및 평균 구매만족도와 현재까
+지 구매한 모든 상품에 대한 총액 및 평균 구매만족도를 출력. 삭제된 구매 내역은 통계에서 제외</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 환불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가상품구매</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Actor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 환불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 적립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 사용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
   </x:si>
   <x:si>
     <x:t>구매내역 조회 시 3개월이 지난 구매 거래내역은 구매내역삭제 버튼을 눌러 임의로 삭제하며, 그 이전의 구매내역은 임의로 삭제할 수 없음.</x:t>
@@ -125,16 +316,77 @@
     <x:t>판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도에 대한 통계를 구할 수 있는 데이터베이스 환경</x:t>
   </x:si>
   <x:si>
+    <x:t>변경된 상품명, 제작회사명, 가격, 수량, 추가상품명, 추가상품가격, 추가상품수량, 판매종료일의 텍스트 내용과 업로드된 사진으로 데이터 저장</x:t>
+  </x:si>
+  <x:si>
     <x:t>구매내역 조회 버튼을 눌러 구매내역 정보(상품명, 제작회사명, 판매자, 가격, 평균 구매만족도, 구매일)를 조회할 수 있다. 이 때 상품명의 오름차순으로 정렬해서 출력함</x:t>
   </x:si>
   <x:si>
-    <x:t>프로그램을 구동하는 서버의 안정성과 속도가 보장되어야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 시 구매대금이 판매자에게 올바르게 전달되어야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원이 판매할 상품에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 입력하여 프로그램에 등록함</x:t>
+    <x:t>Requirement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매내역 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>use case</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use Case(s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 만족도 평가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 환불 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물품 수거 신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품명, 제작회사명, 가격, 수량, 추가상품명, 추가상품가격,
+추가상품수량, 판매종료일 텍스트를 눌러 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 중복체크 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 구매 만족도 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일탐색기에서 사진 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류조회 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 판매/구매 통계 출력 버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류등록 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 Actor는 아이디와 비밀번호를 입력 후 로그인 버튼 클릭</x:t>
   </x:si>
   <x:si>
     <x:t>결제 시 결제 대금의 1%를 포인트로 자동 적립</x:t>
@@ -146,118 +398,149 @@
     <x:t>개인정보를 저장하고 관리하는 데이터베이스와 서버</x:t>
   </x:si>
   <x:si>
-    <x:t>Actor Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 말일 이메일 발송 event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발 팀 내 버전컨트롤을 위한 툴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirement List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 판매 및 구매 통계 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매내역에서 구입 후 6개월이 지난 거래내역을 자동으로 삭제하는 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환불 신청 시 택배사에 자동으로 물품 수거 신청할 수 있도록 인터페이스 확립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 완료된 상품 내역 조회 버튼을 눌러 회원의 판매 상품 중 판매 종료일이 지났거나 남은 수량이 0이 된 상품을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use Case(s)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 만족도 평가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>use case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매내역 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물품 수거 신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매 event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 환불 event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 적립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가상품구매</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 환불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 환불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
-  </x:si>
-  <x:si>
     <x:t>6개월이 지난 구매내역은 자동으로 삭제함</x:t>
   </x:si>
   <x:si>
     <x:t>6개월이 지난 거래 내역 삭제 event</x:t>
   </x:si>
   <x:si>
-    <x:t>등록한 상품이 하나도 없는 회원은 회원 탈퇴 버튼을 눌러 회원의 시스템 사용 권한 소멸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 쇼핑 사이트의 회원으로서 시스템의 모든 기능(판매, 구매 등)을 사용할 수 있는 고객</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회 시 구입 후 4주가 지나지 않은 하나의 상품을 선택하여 환불을 신청할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회를 통해 얻은 판매의류 리스트에서 특정 상품을 선택한 후에 그 상품을 삭제</x:t>
+    <x:t>해당 의류를 구매하였을 때 사용한 포인트가 환불되며 택배사에 물건 수거 신청을 진행 후 환불하기 버튼 비활성화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Actor Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유효한 아이디와 비밀번호일 경우 메인화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 화면에서 환불하기 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매만족도 평가 팝업에서 닫기 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 Actor가 로그아웃 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 창에 검색어 입력 후 엔터키 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor의 PC의 파일탐색기를 표출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 해당 의류 구매만족도를 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 상품 이미지 또는 상품명을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원의 로그인/로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디를 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비회원 회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 구매내역조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원의 회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 판매완료된 상품내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매만족도 평가 팝업이 출력된다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매만족도 평가 팝업에서 별을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 구매만족도를 별에 따라 결정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 의류를 구매내역에서 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 내역으로부터 3개월이 지나지 않은 상품은 삭제 버튼이 비활성화 되며, 구매 후 6개월이 지난 상품의 경우 자동으로 삭제가 진행됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 사용 토글 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 화면에서 상품 좌측의 X버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매의류 수정 버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 상품 상세정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 판매 및 구매통계 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가상품 구매 토글 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 상세 팝업 출력 후 사용자DB의 판매 의류 목록에 있는 해당 상품에 대한
+정보를 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자DB의 판매 의류 목록 및 판매의류DB에 데이터 추가 후 데이터 저장. 메인화면으로 전환.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 결제금액으로 결제시스템이 연동되어 구매가 진행되고, 구매대금의 1퍼센트는 포인트로 적립된다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품사진 혹은 추가상품사진의 사진으로 사용자Actor가 선택한 사진이 업로드된 후
+파일탐색기 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매하기 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 판매의류등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 화면을 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 검색조건 탭 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 결제금액에서 포인트를 차감하여 출력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 결제금액을 기존상품+추가상품금액으로 출력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 상품 이미지, 상품명, 제작회사명, 가격, 수량 , 판매종료일,
+ 추가상품여부, 추가상품명, 추가상품 가격,추가상품 수량 입력 후 등록버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 상품정보조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 판매의류조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정렬조건 탭을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 system</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 상세 정보 화면으로 전환 후 해당 의류에 대한 상세정보(상품사진, 상품명, 가격, 남은 수량, 평균 구매만족도,
+ 판매자, 제작회사명, 판매 종료일)와 추가상품이 존재한다면 추가상품에 대한 상세정보(추가상품사진, 추가상품 상품명, 추가상품가격, 추가상품수량)를 출력한다. 총 결제금액은 기본상품에 대한 결제금액으로 출력한다.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -425,7 +708,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="17">
+  <x:cellXfs count="18">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -537,6 +820,9 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -548,6 +834,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -592,6 +879,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -668,6 +956,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -706,6 +995,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -728,6 +1018,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -760,6 +1051,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -807,6 +1099,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -862,6 +1155,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -896,6 +1190,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -928,6 +1223,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -950,6 +1246,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1301,15 +1598,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:C10"/>
+  <x:dimension ref="A1:C11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E9" activeCellId="0" sqref="E9:E9"/>
+    <x:sheetView topLeftCell="A1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
-    <x:col min="1" max="1" width="8.796875" style="4"/>
+    <x:col min="1" max="1" width="8.796875" style="4" bestFit="1" customWidth="1"/>
     <x:col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
     <x:col min="3" max="3" width="76.09765625" style="1" bestFit="1" customWidth="1"/>
     <x:col min="4" max="16384" width="8.796875" style="1"/>
@@ -1317,20 +1614,20 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A2" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>69</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C2" s="13" t="s">
-        <x:v>63</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1338,10 +1635,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>32</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>3</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1349,10 +1646,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1360,10 +1657,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>29</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1371,10 +1668,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>61</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1382,10 +1679,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>62</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1393,21 +1690,21 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>31</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:3" ht="21.600000000000001" customHeight="1">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3" s="1" customFormat="1" ht="21.600000000000001" customHeight="1">
       <x:c r="A9" s="9">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>76</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>48</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1415,17 +1712,28 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>44</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3" ht="21.600000000000001" customHeight="1">
+      <x:c r="A11" s="9">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B11" s="11" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C11" s="7" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
     <x:mergeCell ref="A1:C1"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1435,7 +1743,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="A1:C14"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
       <x:selection activeCell="C12" activeCellId="0" sqref="C12:C12"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1449,20 +1757,20 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A2" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>58</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1470,7 +1778,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>42</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C3" s="7"/>
     </x:row>
@@ -1479,7 +1787,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C4" s="7"/>
     </x:row>
@@ -1488,7 +1796,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C5" s="7"/>
     </x:row>
@@ -1497,7 +1805,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="7"/>
     </x:row>
@@ -1506,7 +1814,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C7" s="7"/>
     </x:row>
@@ -1515,7 +1823,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C8" s="7"/>
     </x:row>
@@ -1533,7 +1841,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C10" s="7"/>
     </x:row>
@@ -1542,7 +1850,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="11" t="s">
-        <x:v>75</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="C11" s="7"/>
     </x:row>
@@ -1551,7 +1859,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="11" t="s">
-        <x:v>49</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C12" s="7"/>
     </x:row>
@@ -1560,7 +1868,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="11" t="s">
-        <x:v>35</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C13" s="7"/>
     </x:row>
@@ -1573,7 +1881,7 @@
   <x:mergeCells count="1">
     <x:mergeCell ref="A1:C1"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>
@@ -1598,20 +1906,20 @@
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>46</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A2" s="5" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>57</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1619,10 +1927,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>2</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>71</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1630,10 +1938,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>77</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>72</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1641,10 +1949,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>23</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1652,10 +1960,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>74</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1663,10 +1971,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>101</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1674,10 +1982,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>52</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1685,10 +1993,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>0</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>54</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" s="1" customFormat="1" ht="31.050000000000001" customHeight="1">
@@ -1696,10 +2004,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>80</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>64</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1707,10 +2015,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="8" t="s">
-        <x:v>50</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1718,10 +2026,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="8" t="s">
-        <x:v>34</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>53</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1729,10 +2037,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>17</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1740,10 +2048,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="8" t="s">
-        <x:v>25</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>30</x:v>
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1751,10 +2059,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="8" t="s">
-        <x:v>40</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>65</x:v>
+        <x:v>89</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1762,10 +2070,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="8" t="s">
-        <x:v>8</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>73</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1773,10 +2081,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>68</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1784,10 +2092,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="8" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>66</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1795,10 +2103,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>36</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>70</x:v>
+        <x:v>85</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1806,10 +2114,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>56</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1817,10 +2125,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="8" t="s">
-        <x:v>79</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>67</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1828,10 +2136,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="8" t="s">
-        <x:v>21</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>60</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1839,10 +2147,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="8" t="s">
-        <x:v>33</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C23" s="15" t="s">
-        <x:v>59</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1850,7 +2158,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="8" t="s">
-        <x:v>41</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="C24" s="16"/>
     </x:row>
@@ -1859,10 +2167,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="8" t="s">
-        <x:v>14</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C25" s="15" t="s">
-        <x:v>47</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1870,7 +2178,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="8" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C26" s="16"/>
     </x:row>
@@ -1880,7 +2188,713 @@
     <x:mergeCell ref="C25:C26"/>
     <x:mergeCell ref="C23:C24"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet4"/>
+  <x:dimension ref="A1:C97"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="C103" activeCellId="0" sqref="C103:C103"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="33" customWidth="1"/>
+    <x:col min="2" max="2" width="59.25" customWidth="1"/>
+    <x:col min="3" max="3" width="99.25" customWidth="1"/>
+    <x:col min="4" max="4" width="39.375" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="B1" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C1" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" t="s">
+        <x:v>44</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3">
+      <x:c r="A3">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C3" t="s">
+        <x:v>160</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" t="s">
+        <x:v>138</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:2">
+      <x:c r="A5">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" ht="32.75">
+      <x:c r="A6">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="17" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:2">
+      <x:c r="A7">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" t="s">
+        <x:v>76</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:2">
+      <x:c r="A9">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C10" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" t="s">
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="B14" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C14" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2">
+      <x:c r="A15">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B15" t="s">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C16" t="s">
+        <x:v>128</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:2">
+      <x:c r="B17" t="s">
+        <x:v>131</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="3:3">
+      <x:c r="C18" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B21" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C21" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2">
+      <x:c r="A22">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B22" t="s">
+        <x:v>43</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3" ht="32.75">
+      <x:c r="A23">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C23" s="17" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2">
+      <x:c r="A24">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B24" t="s">
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:3">
+      <x:c r="B25" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C25" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B27" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C27" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2">
+      <x:c r="A28">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B28" t="s">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C29" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2" ht="49.149999999999999">
+      <x:c r="A30">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B30" s="17" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C31" t="s">
+        <x:v>155</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:3" ht="32.75">
+      <x:c r="B32" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C32" s="17" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B34" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C34" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2">
+      <x:c r="A35">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B35" t="s">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3" ht="32.75">
+      <x:c r="A36">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C36" s="17" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B37" s="17" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3" ht="32.75">
+      <x:c r="A38">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C38" s="17" t="s">
+        <x:v>154</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2">
+      <x:c r="A39">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B39" s="17" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C40" t="s">
+        <x:v>133</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B41" t="s">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3" ht="32.75">
+      <x:c r="A42">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C42" s="17" t="s">
+        <x:v>157</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2" ht="32.75">
+      <x:c r="A43">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B43" s="17" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B44" t="s">
+        <x:v>150</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3" ht="32.75">
+      <x:c r="A45">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C45" s="17" t="s">
+        <x:v>97</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="2:3">
+      <x:c r="B46" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C46" s="17" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:3">
+      <x:c r="A48" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B48" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C48" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:2">
+      <x:c r="A49">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B49" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:3" ht="49.149999999999999">
+      <x:c r="A50">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C50" s="17" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="2:2">
+      <x:c r="B51" s="17"/>
+    </x:row>
+    <x:row r="52" spans="1:3">
+      <x:c r="A52" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B52" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C52" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:2">
+      <x:c r="A53">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B53" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:3">
+      <x:c r="A54">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C54" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:2">
+      <x:c r="A55">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B55" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:3">
+      <x:c r="A56">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C56" t="s">
+        <x:v>58</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:2">
+      <x:c r="A57">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B57" t="s">
+        <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:3" ht="32.75">
+      <x:c r="A58">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C58" s="17" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:2">
+      <x:c r="A59">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B59" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:3">
+      <x:c r="A60">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C60" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:2">
+      <x:c r="A61">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B61" t="s">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:3">
+      <x:c r="A62">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C62" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:3">
+      <x:c r="A66" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="B66" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C66" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:2" ht="32.75">
+      <x:c r="A67">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B67" s="17" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:3" ht="49.149999999999999">
+      <x:c r="A68">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C68" s="17" t="s">
+        <x:v>170</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:2">
+      <x:c r="A69">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B69" t="s">
+        <x:v>153</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:3">
+      <x:c r="A70">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C70" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:2">
+      <x:c r="A71">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B71" t="s">
+        <x:v>148</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:3">
+      <x:c r="A72">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C72" s="17" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:2">
+      <x:c r="A73">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B73" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:3">
+      <x:c r="A74">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C74" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="2:3">
+      <x:c r="B75" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C75" s="17" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="2:3">
+      <x:c r="B76" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C76" s="17" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:3">
+      <x:c r="A78" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B78" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C78" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:2">
+      <x:c r="A79">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B79" s="17" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:3" ht="32.75">
+      <x:c r="A80">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C80" s="17" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:2">
+      <x:c r="A81">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B81" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:3">
+      <x:c r="A82">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C82" t="s">
+        <x:v>143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:2">
+      <x:c r="A83">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B83" t="s">
+        <x:v>144</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:3">
+      <x:c r="A84">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C84" s="17" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:2">
+      <x:c r="A85">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B85" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:3">
+      <x:c r="A86">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C86" t="s">
+        <x:v>134</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:2">
+      <x:c r="A87">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B87" t="s">
+        <x:v>129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:3">
+      <x:c r="A88">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C88" t="s">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:2">
+      <x:c r="A89">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B89" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:3">
+      <x:c r="A90">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C90" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="2:3">
+      <x:c r="B91" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C91" s="17" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="2:3" ht="32.75">
+      <x:c r="B92" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C92" s="17" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:3">
+      <x:c r="A95" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B95" t="s">
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="C95" t="s">
+        <x:v>137</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:2">
+      <x:c r="A96">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B96" s="17" t="s">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:3" ht="32.75">
+      <x:c r="A97">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C97" s="17" t="s">
+        <x:v>83</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
 </file>
--- a/Requirement List & Actor Description.xlsx
+++ b/Requirement List & Actor Description.xlsx
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="171">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="170">
+  <x:si>
+    <x:t>해당 의류를 구매하였을 때 사용한 포인트가 환불되며 택배사에 물건 수거 신청을 진행 후 환불하기 버튼 비활성화</x:t>
+  </x:si>
   <x:si>
     <x:t>구매내역 조회 화면으로 전환 후 사용자가 구매한 상품의 사진, 상품명, 제작회사명, 판매자, 가격, 평균 구매만족도, 구매일을 출력한다. 상품명의 오름차순으로 상품을 정렬하여 출력한다.</x:t>
   </x:si>
@@ -30,466 +33,491 @@
     <x:t>판매 의류 조회를 통해 얻은 판매의류 리스트에서 특정 상품을 선택한 후에 그 상품에 대한 모든 항목을 수정</x:t>
   </x:si>
   <x:si>
+    <x:t>상품명, 제작회사명, 가격, 수량, 추가상품명, 추가상품가격,
+추가상품수량, 판매종료일 텍스트를 눌러 수정</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원가입 버튼을 눌러 회원 정보(이름,주민번호,주소,이메일,ID,PW)를 입력하여 회원가입을 진행 후, 사용자에게 의류 쇼핑 사이트 사용 권한을 부여</x:t>
   </x:si>
   <x:si>
+    <x:t>판매 상품 이미지, 상품명, 제작회사명, 가격, 수량 , 판매종료일,
+ 추가상품여부, 추가상품명, 추가상품 가격,추가상품 수량 입력 후 등록버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매한 상품에 대한 환불 신청은 구매 날짜로부터 4주 이내여야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 가입시 중복 ID, 비밀번호 기준 등 유효성 검사 시행</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃 버튼을 눌러 사용자 인증 해제 후 프로그램 자동 종료</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 Actor는 아이디와 비밀번호를 입력 후 로그인 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
     <x:t>추가상품 구매 시 기존상품과 가격이 합산되어 결제되어야 함</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류등록 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류조회 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
     <x:t>의류 쇼핑 사이트에 회원가입을 하지 않아 사용 권한이 없는 고객</x:t>
   </x:si>
   <x:si>
-    <x:t>구매한 상품에 대한 환불 신청은 구매 날짜로부터 4주 이내여야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 가입시 중복 ID, 비밀번호 기준 등 유효성 검사 시행</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃 버튼을 눌러 사용자 인증 해제 후 프로그램 자동 종료</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 시 남은 포인트가 3000점 이상일 경우 포인트 사용 버튼을 눌러 포인트를 사용할 수 있다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 구매 만족도순 정렬 버튼을 누르면 상품 정보 조회 리스트의 정렬 기준을 평균 구매만족도로 바꿈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 상품 환불 신청 시 자동으로 소모한 포인트 반환과 택배사에 물품 수거 신청을 보내는 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 쇼핑 사이트에서 사용자가 상품을 구매 시 자동으로 결제금액의 1%를 포인트로 적립해주는 이벤트</x:t>
+    <x:t>사용자Actor는 메인화면에서 판매/구매 통계 출력 버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>거래 상품 통계 화면으로 전환.  현재까지 판매한 모든 상품에 대한 총액 및 평균 구매만족도와 현재까
+지 구매한 모든 상품에 대한 총액 및 평균 구매만족도를 출력. 삭제된 구매 내역은 통계에서 제외</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매할 의류에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 저장하는 데이터베이스</x:t>
   </x:si>
   <x:si>
     <x:t>판매 의류 조회 화면으로 전환 후 사용자DB의 판매 의류 목록에 있는 상품들에 대한
 정보를 출력</x:t>
   </x:si>
   <x:si>
-    <x:t>포인트가 3000p미만이면 포인트 사용 토글이 비활성화 되며 클릭할 수 없게 된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중복되는 아이디를 회원 DB에서 탐색 후 중복이 아니라면
-비밀번호부터 입력 가능</x:t>
+    <x:t>평균 구매 만족도순 정렬 버튼을 누르면 상품 정보 조회 리스트의 정렬 기준을 평균 구매만족도로 바꿈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 상품 환불 신청 시 자동으로 소모한 포인트 반환과 택배사에 물품 수거 신청을 보내는 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 상세 팝업 출력 후 사용자DB의 판매 의류 목록에 있는 해당 상품에 대한
+정보를 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 시 남은 포인트가 3000점 이상일 경우 포인트 사용 버튼을 눌러 포인트를 사용할 수 있다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 쇼핑 사이트에서 사용자가 상품을 구매 시 자동으로 결제금액의 1%를 포인트로 적립해주는 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>매월 말 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 자동 공지하는 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 쇼핑 사이트에서 사용자가 상품을 구매 시 결제 시스템이 연동되며 결제 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매완료된 상품내역 조회 화면으로 전환 후 판매 종료일이 지났거나 남은 수량이 0이 된 상품 출력 
+내역은 상품명의 오름차순으로 정렬해서 출력하며 각 상품에 대해 상품명, 제작회사명, 가격, 판매된 수량, 평균 구매만족도를 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매내역에서 구입 후 6개월이 지난 거래내역을 자동으로 삭제하는 이벤트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매의류 삭제 버튼을 눌러 해당 상품에 대한 정보를 판매 의류목록에서 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환불 신청 시 택배사에 자동으로 물품 수거 신청할 수 있도록 인터페이스 확립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가상품이 없다면 추가상품 구매 토글이 비활성화 되며 클릭할 수 없게 된다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록한 상품이 없다면 회원 DB에서 회원 삭제 후 회원의 시스템 사용권한 소멸</x:t>
   </x:si>
   <x:si>
     <x:t>사용자Actor는 메인화면 중앙의 상품 리스트에서 상품의
  사진 또는 상품명 클릭</x:t>
   </x:si>
   <x:si>
-    <x:t>판매할 의류에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 저장하는 데이터베이스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>매월 말 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 자동 공지하는 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 정보 조회 리스트에서 원하는 상품을 선택하면 해당 상품의 상세한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일, 평균 구매만족도)가 출력되며 즉시 결제한 후 구매할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매완료된 상품내역 조회 화면으로 전환 후 판매 종료일이 지났거나 남은 수량이 0이 된 상품 출력 
-내역은 상품명의 오름차순으로 정렬해서 출력하며 각 상품에 대해 상품명, 제작회사명, 가격, 판매된 수량, 평균 구매만족도를 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>통계보기 버튼을 눌러 회원이 판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도를 출력. 삭제된 구매 내역은 통계에서 제외함</x:t>
+    <x:t>매월 말일에 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 공지함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트가 3000p미만이면 포인트 사용 토글이 비활성화 되며 클릭할 수 없게 된다.</x:t>
   </x:si>
   <x:si>
     <x:t>의류 쇼핑 사이트에 회원가입을 하여 로그인을 통해 시스템을 사용할 권한이 있는 고객</x:t>
   </x:si>
   <x:si>
-    <x:t>매월 말일에 모든 회원들에게 그 달에 대한 판매 및 구매 통계 정보를 이메일로 공지함</x:t>
+    <x:t>구매 후 4주가 지난 상품의 경우 환불하기 버튼이 비활성화되며 환불을 진행할 수 없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중복되는 아이디를 회원 DB에서 탐색 후 중복이 아니라면 비밀번호부터 입력 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제</x:t>
   </x:si>
   <x:si>
     <x:t>사용자</x:t>
   </x:si>
   <x:si>
-    <x:t>회원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인</x:t>
-  </x:si>
-  <x:si>
     <x:t>택배사</x:t>
   </x:si>
   <x:si>
     <x:t>비회원</x:t>
   </x:si>
   <x:si>
-    <x:t>구매 후 4주가 지난 상품의 경우 환불하기 버튼이 비활성화되며 환불을 진행할 수 없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 쇼핑 사이트에서 사용자가 상품을 구매 시 결제 시스템이 연동되며 결제 가능</x:t>
+    <x:t>물품 수거 신청 요청을 받음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디 중복체크 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 구매 만족도순 정렬</x:t>
   </x:si>
   <x:si>
     <x:t>판매 완료된 상품 내역 조회</x:t>
   </x:si>
   <x:si>
-    <x:t>평균 구매 만족도순 정렬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물품 수거 신청 요청을 받음</x:t>
+    <x:t>파일탐색기에서 사진 선택</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Actor Action</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원의 로그인/로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>System Response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 사용 토글 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>평균 구매 만족도 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매의류 수정 버튼을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 상품 상세정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 판매 및 구매통계 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가상품 구매 토글 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>등록한 상품이 하나도 없는 회원은 회원 탈퇴 버튼을 눌러 회원의 시스템 사용 권한 소멸</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의류 쇼핑 사이트의 회원으로서 시스템의 모든 기능(판매, 구매 등)을 사용할 수 있는 고객</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회를 통해 얻은 판매의류 리스트에서 특정 상품을 선택한 후에 그 상품을 삭제</x:t>
   </x:si>
   <x:si>
     <x:t>구매내역 조회 시 구입 후 4주가 지나지 않은 하나의 상품을 선택하여 환불을 신청할 수 있음</x:t>
   </x:si>
   <x:si>
-    <x:t>판매 의류 조회를 통해 얻은 판매의류 리스트에서 특정 상품을 선택한 후에 그 상품을 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록한 상품이 하나도 없는 회원은 회원 탈퇴 버튼을 눌러 회원의 시스템 사용 권한 소멸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의류 쇼핑 사이트의 회원으로서 시스템의 모든 기능(판매, 구매 등)을 사용할 수 있는 고객</x:t>
+    <x:t>상품 상세 정보 화면으로 전환 후 해당 의류에 대한 상세정보(상품사진, 상품명, 가격, 남은 수량, 평균 구매만족도,
+ 판매자, 제작회사명, 판매 종료일)와 추가상품이 존재한다면 추가상품에 대한 상세정보(추가상품사진, 추가상품 상품명, 추가상품가격, 추가상품수량)를 출력한다. 총 결제금액은 기본상품에 대한 결제금액으로 출력한다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원 Actor는 회원탈퇴불가 팝업창에서 닫기버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alternative Courses Step 3-11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색조건인 상품명, 구매만족도 버튼이 탭이 펼쳐지며 표출</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 화면에서 구매만족도 평가하기 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alternative Courses Step 5-6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자가 클릭한 검색조건으로 현재 검색조건 업데이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품사진 혹은 추가상품사진의 사진 등록하기버튼을 클릭</x:t>
   </x:si>
   <x:si>
     <x:t>Alternative Courses Step 3-4</x:t>
   </x:si>
   <x:si>
-    <x:t>Alternative Courses Step 2-3</x:t>
+    <x:t>현재 표출된 상품을 평균 구매 만족도의 오름차순으로 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alternative Courses Step 11-12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로그램을 구동하는 서버의 안정성과 속도가 보장되어야함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원정보를 회원 DB에 저장 후 로그인 화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색조건 탭에서 상품명, 구매만족도 버튼 중 하나를 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 구매내역조회 버튼을 클릭</x:t>
   </x:si>
   <x:si>
     <x:t>회원 Actor는 메인화면에서 회원탈퇴 버튼을 클릭</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인 화면에서 비회원 Actor가 회원가입 버튼을 누름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 Actor는 회원탈퇴불가 팝업창에서 닫기버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자Actor는 메인화면에서 구매내역조회 버튼을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alternative Courses Step 3-11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alternative Courses Step 5-6</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재 표출된 상품을 평균 구매 만족도의 오름차순으로 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alternative Courses Step 11-12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품사진 혹은 추가상품사진의 사진 등록하기버튼을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정렬조건인 상품명, 구매만족도 버튼이 탭이 펼쳐지며 표출</x:t>
-  </x:si>
-  <x:si>
     <x:t>Alternative Courses Step 9-10</x:t>
   </x:si>
   <x:si>
-    <x:t>구매내역 조회 화면에서 구매만족도 평가하기 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로그램을 구동하는 서버의 안정성과 속도가 보장되어야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색조건인 상품명, 구매만족도 버튼이 탭이 펼쳐지며 표출</x:t>
-  </x:si>
-  <x:si>
     <x:t>결제 시 구매대금이 판매자에게 올바르게 전달되어야함</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자가 클릭한 검색조건으로 현재 검색조건 업데이트</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">등록한 상품이 하나라도 있다면 회원탈퇴불가 팝업창 출력
 </x:t>
   </x:si>
   <x:si>
-    <x:t>검색조건 탭에서 상품명, 구매만족도 버튼 중 하나를 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보를 회원 DB에 저장 후 로그인 화면으로 전환</x:t>
+    <x:t>Alternative Courses Step 2-3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정렬조건인 상품명, 구매만족도 버튼이 탭이 펼쳐지며 표출</x:t>
   </x:si>
   <x:si>
     <x:t>회원이 판매할 상품에 대한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일)를 입력하여 프로그램에 등록함</x:t>
   </x:si>
   <x:si>
+    <x:t>구매 내역으로부터 3개월이 지나지 않은 상품은 삭제 버튼이 비활성화 되며, 구매 후 6개월이 지난 상품의 경우 자동으로 삭제가 진행됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인정보를 저장하고 관리하는 데이터베이스와 서버</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6개월이 지난 구매 거래내역은 자동 삭제됨.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 시 결제 대금의 1%를 포인트로 자동 적립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>유효한 아이디와 비밀번호일 경우 메인화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 화면에서 상품 좌측의 X버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 검색조건 탭 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해당 의류를 구매내역에서 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Actor Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매만족도 평가 팝업에서 별을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 판매 및 구매 통계 출력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requirement List</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매만족도 평가 팝업이 출력된다.</x:t>
+  </x:si>
+  <x:si>
     <x:t>판매 의류 등록 화면으로 전환</x:t>
   </x:si>
   <x:si>
-    <x:t>Requirement List</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actor Description</x:t>
+    <x:t>사용자의 판매완료된 상품내역 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현재 구매만족도를 별에 따라 결정</x:t>
   </x:si>
   <x:si>
     <x:t>개발 팀 내 버전컨트롤을 위한 툴</x:t>
   </x:si>
   <x:si>
-    <x:t>상품 판매 및 구매 통계 출력</x:t>
-  </x:si>
-  <x:si>
     <x:t>매월 말일 이메일 발송 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회 버튼을 눌러 자신이 등록한 의류 상품의 리스트 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환불 신청한 상품에 대해 택배사에 자동으로 물품 수거 신청이 요청됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor는 메인화면에서 판매완료된 상품 내역 조회 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 시 하나의 상품을 선택하여 구매만족도를 평가할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 환불 시 포인트를 사용하여 결제 했다면 사용한 포인트를 돌려받음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비밀번호, 이름, 주민번호, 주소, 이메일 입력 후 회원가입 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ID와 PW를 입력하여 사용자 인증을 통해 클라이언트의 접속 허용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 정보 조회 리스트에서 원하는 상품을 선택하면 해당 상품의 상세한 정보(상품명, 제작회사명, 가격, 수량, 추가상품, 추가상품 가격, 판매종료일, 평균 구매만족도)가 출력되며 즉시 결제한 후 구매할 수 있음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 완료된 상품 내역 조회 버튼을 눌러 회원의 판매 상품 중 판매 종료일이 지났거나 남은 수량이 0이 된 상품을 조회</x:t>
   </x:si>
   <x:si>
     <x:t>추가상품이 없어 추가상품 여부를 체크하지 않은경우 추가상품명, 추가상품가격,
  추가상품수량 입력하지 않아도 등록 가능</x:t>
   </x:si>
   <x:si>
-    <x:t>판매 완료된 상품 내역 조회 버튼을 눌러 회원의 판매 상품 중 판매 종료일이 지났거나 남은 수량이 0이 된 상품을 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회 시 하나의 상품을 선택하여 구매만족도를 평가할 수 있음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 환불 시 포인트를 사용하여 결제 했다면 사용한 포인트를 돌려받음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ID와 PW를 입력하여 사용자 인증을 통해 클라이언트의 접속 허용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회 버튼을 눌러 자신이 등록한 의류 상품의 리스트 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환불 신청한 상품에 대해 택배사에 자동으로 물품 수거 신청이 요청됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비밀번호, 이름, 주민번호, 주소, 이메일 입력 후 회원가입 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자Actor는 메인화면에서 판매완료된 상품 내역 조회 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매내역에서 구입 후 6개월이 지난 거래내역을 자동으로 삭제하는 이벤트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환불 신청 시 택배사에 자동으로 물품 수거 신청할 수 있도록 인터페이스 확립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매의류 삭제 버튼을 눌러 해당 상품에 대한 정보를 판매 의류목록에서 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가상품이 없다면 추가상품 구매 토글이 비활성화 되며 클릭할 수 없게 된다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>등록한 상품이 없다면 회원 DB에서 회원 삭제 후 회원의 시스템 사용권한 소멸</x:t>
-  </x:si>
-  <x:si>
-    <x:t>거래 상품 통계 화면으로 전환.  현재까지 판매한 모든 상품에 대한 총액 및 평균 구매만족도와 현재까
-지 구매한 모든 상품에 대한 총액 및 평균 구매만족도를 출력. 삭제된 구매 내역은 통계에서 제외</x:t>
-  </x:si>
-  <x:si>
     <x:t>포인트 환불</x:t>
   </x:si>
   <x:si>
     <x:t>구매내역 조회</x:t>
   </x:si>
   <x:si>
+    <x:t>상품 환불</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 적립</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이디를 입력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포인트 사용</x:t>
+  </x:si>
+  <x:si>
     <x:t>추가상품구매</x:t>
   </x:si>
   <x:si>
     <x:t>Actor</x:t>
   </x:si>
   <x:si>
-    <x:t>상품 환불</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 적립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
     <x:t>회원탈퇴</x:t>
   </x:si>
   <x:si>
-    <x:t>포인트 사용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그아웃</x:t>
+    <x:t>통계보기 버튼을 눌러 회원이 판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도를 출력. 삭제된 구매 내역은 통계에서 제외함</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Requirement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매 만족도 평가</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 정보 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Use Case(s)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매내역 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 구매 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>상품 환불 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>판매 의류 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Description</x:t>
+  </x:si>
+  <x:si>
+    <x:t>물품 수거 신청</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 구매내역조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원의 회원탈퇴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인 화면으로 전환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입 화면을 표시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 상품정보조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 판매의류조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정렬조건 탭을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매하기 버튼 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>결제 system</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자의 판매의류등록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비회원 회원가입</x:t>
   </x:si>
   <x:si>
     <x:t>구매내역 조회 시 3개월이 지난 구매 거래내역은 구매내역삭제 버튼을 눌러 임의로 삭제하며, 그 이전의 구매내역은 임의로 삭제할 수 없음.</x:t>
   </x:si>
   <x:si>
+    <x:t>판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도에 대한 통계를 구할 수 있는 데이터베이스 환경</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변경된 상품명, 제작회사명, 가격, 수량, 추가상품명, 추가상품가격, 추가상품수량, 판매종료일의 텍스트 내용과 업로드된 사진으로 데이터 저장</x:t>
+  </x:si>
+  <x:si>
     <x:t>검색 조건(상품명, 평균 구매만족도) 중 하나를 선택하여 입력하면 이에 해당하는 상품 리스트를 상품명의 오름차순으로 출력하여 알아보기 쉽게 함</x:t>
   </x:si>
   <x:si>
-    <x:t>판매한 상품에 대한 총액 및 평균 구매만족도와 구매한 상품에 대한 총액 및 평균 구매만족도에 대한 통계를 구할 수 있는 데이터베이스 환경</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변경된 상품명, 제작회사명, 가격, 수량, 추가상품명, 추가상품가격, 추가상품수량, 판매종료일의 텍스트 내용과 업로드된 사진으로 데이터 저장</x:t>
-  </x:si>
-  <x:si>
     <x:t>구매내역 조회 버튼을 눌러 구매내역 정보(상품명, 제작회사명, 판매자, 가격, 평균 구매만족도, 구매일)를 조회할 수 있다. 이 때 상품명의 오름차순으로 정렬해서 출력함</x:t>
   </x:si>
   <x:si>
-    <x:t>Requirement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매내역 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>use case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Use Case(s)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 만족도 평가</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Description</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 환불 event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 구매 event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>물품 수거 신청</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품명, 제작회사명, 가격, 수량, 추가상품명, 추가상품가격,
-추가상품수량, 판매종료일 텍스트를 눌러 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디 중복체크 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>평균 구매 만족도 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일탐색기에서 사진 선택</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류조회 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자Actor는 메인화면에서 판매/구매 통계 출력 버튼을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자 Actor는 메인화면에서 판매 탭의 의류등록 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원 Actor는 아이디와 비밀번호를 입력 후 로그인 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 시 결제 대금의 1%를 포인트로 자동 적립</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6개월이 지난 구매 거래내역은 자동 삭제됨.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인정보를 저장하고 관리하는 데이터베이스와 서버</x:t>
+    <x:t>6개월이 지난 거래 내역 삭제 event</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구매내역 조회 화면에서 환불하기 버튼 클릭</x:t>
   </x:si>
   <x:si>
     <x:t>6개월이 지난 구매내역은 자동으로 삭제함</x:t>
   </x:si>
   <x:si>
-    <x:t>6개월이 지난 거래 내역 삭제 event</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 의류를 구매하였을 때 사용한 포인트가 환불되며 택배사에 물건 수거 신청을 진행 후 환불하기 버튼 비활성화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Actor Action</x:t>
-  </x:si>
-  <x:si>
-    <x:t>유효한 아이디와 비밀번호일 경우 메인화면으로 전환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회 화면에서 환불하기 버튼 클릭</x:t>
+    <x:t>판매 상품 이미지 또는 상품명을 클릭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>검색 창에 검색어 입력 후 엔터키 입력</x:t>
   </x:si>
   <x:si>
     <x:t>구매만족도 평가 팝업에서 닫기 버튼 클릭</x:t>
   </x:si>
   <x:si>
+    <x:t>사용자의 해당 의류 구매만족도를 저장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용자Actor의 PC의 파일탐색기를 표출</x:t>
+  </x:si>
+  <x:si>
     <x:t>회원 Actor가 로그아웃 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>검색 창에 검색어 입력 후 엔터키 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자Actor의 PC의 파일탐색기를 표출</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 해당 의류 구매만족도를 저장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 상품 이미지 또는 상품명을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원의 로그인/로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>System Response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>아이디를 입력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비회원 회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 구매내역조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원의 회원탈퇴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 판매완료된 상품내역 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매만족도 평가 팝업이 출력된다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매만족도 평가 팝업에서 별을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현재 구매만족도를 별에 따라 결정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해당 의류를 구매내역에서 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매 내역으로부터 3개월이 지나지 않은 상품은 삭제 버튼이 비활성화 되며, 구매 후 6개월이 지난 상품의 경우 자동으로 삭제가 진행됨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포인트 사용 토글 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구매내역 조회 화면에서 상품 좌측의 X버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매의류 수정 버튼을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 상품 상세정보 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 판매 및 구매통계 출력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가상품 구매 토글 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>판매 의류 상세 팝업 출력 후 사용자DB의 판매 의류 목록에 있는 해당 상품에 대한
-정보를 출력</x:t>
   </x:si>
   <x:si>
     <x:t>사용자DB의 판매 의류 목록 및 판매의류DB에 데이터 추가 후 데이터 저장. 메인화면으로 전환.</x:t>
@@ -502,52 +530,20 @@
 파일탐색기 종료</x:t>
   </x:si>
   <x:si>
-    <x:t>구매하기 버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 판매의류등록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입 화면을 표시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인 화면으로 전환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자Actor는 메인화면에서 검색조건 탭 클릭</x:t>
-  </x:si>
-  <x:si>
     <x:t>총 결제금액에서 포인트를 차감하여 출력한다.</x:t>
   </x:si>
   <x:si>
     <x:t>총 결제금액을 기존상품+추가상품금액으로 출력한다.</x:t>
   </x:si>
   <x:si>
-    <x:t>판매 상품 이미지, 상품명, 제작회사명, 가격, 수량 , 판매종료일,
- 추가상품여부, 추가상품명, 추가상품 가격,추가상품 수량 입력 후 등록버튼 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 상품정보조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>사용자의 판매의류조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정렬조건 탭을 클릭</x:t>
-  </x:si>
-  <x:si>
-    <x:t>결제 system</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상품 상세 정보 화면으로 전환 후 해당 의류에 대한 상세정보(상품사진, 상품명, 가격, 남은 수량, 평균 구매만족도,
- 판매자, 제작회사명, 판매 종료일)와 추가상품이 존재한다면 추가상품에 대한 상세정보(추가상품사진, 추가상품 상품명, 추가상품가격, 추가상품수량)를 출력한다. 총 결제금액은 기본상품에 대한 결제금액으로 출력한다.</x:t>
+    <x:t>로그인 화면에서 비회원 Actor가 회원가입 버튼을 누름</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="9">
+  <x:fonts count="10">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -594,6 +590,11 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="8"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
   </x:fonts>
   <x:fills count="2">
     <x:fill>
@@ -603,7 +604,7 @@
       <x:patternFill patternType="gray125"/>
     </x:fill>
   </x:fills>
-  <x:borders count="4">
+  <x:borders count="13">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -657,6 +658,132 @@
         <x:color indexed="64"/>
       </x:top>
       <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right>
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
@@ -708,7 +835,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="18">
+  <x:cellXfs count="34">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -820,9 +947,207 @@
     <x:xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -834,7 +1159,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -879,7 +1203,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -956,7 +1279,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -995,7 +1317,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1018,7 +1339,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1051,7 +1371,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1099,7 +1418,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1155,7 +1473,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1190,7 +1507,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1223,7 +1539,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1246,7 +1561,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1600,34 +1914,34 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:C11"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
+    <x:sheetView topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:C11"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="8.796875" style="4" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="25.3984375" style="3" customWidth="1"/>
-    <x:col min="3" max="3" width="76.09765625" style="1" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="16.625" style="3" customWidth="1"/>
+    <x:col min="3" max="3" width="44.375" style="1" customWidth="1"/>
     <x:col min="4" max="16384" width="8.796875" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>65</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:3" ht="21.600000000000001" customHeight="1">
       <x:c r="A2" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="12" t="s">
-        <x:v>87</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C2" s="13" t="s">
-        <x:v>108</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1635,10 +1949,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C3" s="7" t="s">
-        <x:v>6</x:v>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C3" s="20" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1646,10 +1960,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C4" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C4" s="20" t="s">
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1657,10 +1971,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="11" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C5" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C5" s="20" t="s">
+        <x:v>61</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1668,10 +1982,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C6" s="7" t="s">
-        <x:v>13</x:v>
+        <x:v>134</x:v>
+      </x:c>
+      <x:c r="C6" s="20" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1679,10 +1993,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C7" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>135</x:v>
+      </x:c>
+      <x:c r="C7" s="20" t="s">
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1690,10 +2004,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C8" s="7" t="s">
-        <x:v>36</x:v>
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C8" s="20" t="s">
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3" s="1" customFormat="1" ht="21.600000000000001" customHeight="1">
@@ -1701,10 +2015,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>169</x:v>
-      </x:c>
-      <x:c r="C9" s="7" t="s">
-        <x:v>33</x:v>
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="C9" s="20" t="s">
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1712,10 +2026,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="C10" s="7" t="s">
-        <x:v>78</x:v>
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C10" s="20" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3" ht="21.600000000000001" customHeight="1">
@@ -1723,10 +2037,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="11" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C11" s="7" t="s">
-        <x:v>19</x:v>
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C11" s="20" t="s">
+        <x:v>25</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1744,41 +2058,39 @@
   <x:dimension ref="A1:C14"/>
   <x:sheetViews>
     <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C12" activeCellId="0" sqref="C12:C12"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:B13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="8.796875" style="4"/>
-    <x:col min="2" max="2" width="73.3984375" style="3" customWidth="1"/>
+    <x:col min="2" max="2" width="58.875" style="3" customWidth="1"/>
     <x:col min="3" max="3" width="53" style="1" customWidth="1"/>
     <x:col min="4" max="16384" width="8.796875" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="31.050000000000001" customHeight="1">
-      <x:c r="A1" s="14" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B1" s="14"/>
-      <x:c r="C1" s="14"/>
+      <x:c r="A1" s="18" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B1" s="19"/>
+      <x:c r="C1" s="17"/>
     </x:row>
     <x:row r="2" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A2" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="10" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="C2" s="5" t="s">
-        <x:v>103</x:v>
-      </x:c>
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C2" s="5"/>
     </x:row>
     <x:row r="3" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A3" s="9">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="11" t="s">
-        <x:v>123</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C3" s="7"/>
     </x:row>
@@ -1787,7 +2099,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="11" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C4" s="7"/>
     </x:row>
@@ -1805,7 +2117,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>66</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C6" s="7"/>
     </x:row>
@@ -1814,7 +2126,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C7" s="7"/>
     </x:row>
@@ -1823,7 +2135,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="11" t="s">
-        <x:v>57</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C8" s="7"/>
     </x:row>
@@ -1832,7 +2144,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="11" t="s">
-        <x:v>5</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C9" s="7"/>
     </x:row>
@@ -1841,7 +2153,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C10" s="7"/>
     </x:row>
@@ -1850,7 +2162,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="11" t="s">
-        <x:v>124</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C11" s="7"/>
     </x:row>
@@ -1859,7 +2171,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="11" t="s">
-        <x:v>79</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C12" s="7"/>
     </x:row>
@@ -1868,7 +2180,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="11" t="s">
-        <x:v>96</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C13" s="7"/>
     </x:row>
@@ -1879,7 +2191,7 @@
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="A1:C1"/>
+    <x:mergeCell ref="A1:B1"/>
   </x:mergeCells>
   <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
@@ -1891,35 +2203,35 @@
   <x:sheetPr codeName="Sheet3"/>
   <x:dimension ref="A1:C26"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="B10" activeCellId="0" sqref="B10:B10"/>
+    <x:sheetView topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:C26"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
   <x:cols>
     <x:col min="1" max="1" width="8.796875" style="4"/>
-    <x:col min="2" max="2" width="78.5" style="2" customWidth="1"/>
-    <x:col min="3" max="3" width="36.5" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="40.625" style="2" customWidth="1"/>
+    <x:col min="3" max="3" width="20.125" style="1" customWidth="1"/>
     <x:col min="4" max="4" width="47.25" style="1" customWidth="1"/>
     <x:col min="5" max="16384" width="8.796875" style="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A1" s="14" t="s">
-        <x:v>64</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B1" s="14"/>
       <x:c r="C1" s="14"/>
     </x:row>
     <x:row r="2" spans="1:3" ht="31.050000000000001" customHeight="1">
       <x:c r="A2" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B2" s="6" t="s">
-        <x:v>99</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="C2" s="5" t="s">
-        <x:v>105</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1927,10 +2239,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="7" t="s">
-        <x:v>90</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1938,10 +2250,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="8" t="s">
-        <x:v>39</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C4" s="7" t="s">
-        <x:v>91</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1949,10 +2261,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>73</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C5" s="7" t="s">
-        <x:v>29</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1960,10 +2272,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="8" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="7" t="s">
-        <x:v>93</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1971,10 +2283,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="8" t="s">
-        <x:v>62</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C7" s="7" t="s">
-        <x:v>101</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1982,10 +2294,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="8" t="s">
-        <x:v>74</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C8" s="7" t="s">
-        <x:v>106</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -1993,10 +2305,10 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="8" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="7" t="s">
-        <x:v>102</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3" s="1" customFormat="1" ht="31.050000000000001" customHeight="1">
@@ -2004,10 +2316,10 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="8" t="s">
-        <x:v>38</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C10" s="7" t="s">
-        <x:v>111</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2015,10 +2327,10 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="8" t="s">
-        <x:v>70</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C11" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2026,10 +2338,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B12" s="8" t="s">
-        <x:v>95</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>104</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2037,10 +2349,10 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B13" s="8" t="s">
-        <x:v>11</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>35</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2048,10 +2360,10 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B14" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>27</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2059,10 +2371,10 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B15" s="8" t="s">
-        <x:v>121</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>89</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2070,10 +2382,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B16" s="8" t="s">
-        <x:v>10</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C16" s="7" t="s">
-        <x:v>92</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2081,10 +2393,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B17" s="8" t="s">
-        <x:v>72</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="C17" s="7" t="s">
-        <x:v>84</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2092,10 +2404,10 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B18" s="8" t="s">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="7" t="s">
-        <x:v>86</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2103,10 +2415,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B19" s="8" t="s">
-        <x:v>98</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C19" s="7" t="s">
-        <x:v>85</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2114,10 +2426,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B20" s="8" t="s">
-        <x:v>71</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C20" s="7" t="s">
-        <x:v>107</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2125,10 +2437,10 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B21" s="8" t="s">
-        <x:v>37</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>88</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2136,10 +2448,10 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B22" s="8" t="s">
-        <x:v>75</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>112</x:v>
+        <x:v>138</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2147,10 +2459,10 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B23" s="8" t="s">
-        <x:v>94</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C23" s="15" t="s">
-        <x:v>100</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2158,7 +2470,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B24" s="8" t="s">
-        <x:v>122</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C24" s="16"/>
     </x:row>
@@ -2167,10 +2479,10 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B25" s="8" t="s">
-        <x:v>22</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C25" s="15" t="s">
-        <x:v>67</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:3" ht="31.050000000000001" customHeight="1">
@@ -2178,7 +2490,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B26" s="8" t="s">
-        <x:v>24</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C26" s="16"/>
     </x:row>
@@ -2196,705 +2508,730 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet4"/>
-  <x:dimension ref="A1:C97"/>
+  <x:dimension ref="A1:D97"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="C103" activeCellId="0" sqref="C103:C103"/>
+    <x:sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="A95" activeCellId="0" sqref="A95:C97"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
+  <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="12.15"/>
   <x:cols>
-    <x:col min="1" max="1" width="33" customWidth="1"/>
-    <x:col min="2" max="2" width="59.25" customWidth="1"/>
-    <x:col min="3" max="3" width="99.25" customWidth="1"/>
-    <x:col min="4" max="4" width="39.375" customWidth="1"/>
+    <x:col min="1" max="1" width="12" style="21" customWidth="1"/>
+    <x:col min="2" max="2" width="30.25" style="22" customWidth="1"/>
+    <x:col min="3" max="3" width="30.125" style="22" customWidth="1"/>
+    <x:col min="4" max="4" width="39.375" style="23" customWidth="1"/>
+    <x:col min="5" max="16384" width="9.00390625" style="23"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
-      <x:c r="A1" t="s">
+    <x:row r="1" spans="1:4" ht="12.5">
+      <x:c r="A1" s="24" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="B1" s="25" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C1" s="26" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D1" s="27"/>
+    </x:row>
+    <x:row r="2" spans="1:4" ht="24.25">
+      <x:c r="A2" s="24">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="22" t="s">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="C2" s="28"/>
+      <x:c r="D2" s="27"/>
+    </x:row>
+    <x:row r="3" spans="1:4">
+      <x:c r="A3" s="24">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C3" s="28" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="D3" s="27"/>
+    </x:row>
+    <x:row r="4" spans="1:4">
+      <x:c r="A4" s="24">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="22" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="C4" s="28"/>
+      <x:c r="D4" s="27"/>
+    </x:row>
+    <x:row r="5" spans="1:4">
+      <x:c r="A5" s="24">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="22" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C5" s="28"/>
+      <x:c r="D5" s="27"/>
+    </x:row>
+    <x:row r="6" spans="1:4" ht="24.25">
+      <x:c r="A6" s="24">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="28" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D6" s="27"/>
+    </x:row>
+    <x:row r="7" spans="1:4" ht="24.25">
+      <x:c r="A7" s="24">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="22" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C7" s="28"/>
+      <x:c r="D7" s="27"/>
+    </x:row>
+    <x:row r="8" spans="1:4" ht="24.25">
+      <x:c r="A8" s="24">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C8" s="28" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D8" s="27"/>
+    </x:row>
+    <x:row r="9" spans="1:4" ht="24.25">
+      <x:c r="A9" s="24">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B9" s="22" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C9" s="28"/>
+      <x:c r="D9" s="27"/>
+    </x:row>
+    <x:row r="10" spans="1:4" ht="24.600000000000001">
+      <x:c r="A10" s="29">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B10" s="30"/>
+      <x:c r="C10" s="31" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D10" s="27"/>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="32"/>
+      <x:c r="B11" s="33"/>
+      <x:c r="C11" s="33"/>
+    </x:row>
+    <x:row r="14" spans="1:3" ht="24.25">
+      <x:c r="A14" s="21" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B14" s="22" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C14" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:2" ht="24.25">
+      <x:c r="A15" s="21">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B15" s="22" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3" ht="24.25">
+      <x:c r="A16" s="21">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C16" s="22" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:2">
+      <x:c r="A17" s="21">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B17" s="22" t="s">
+        <x:v>163</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="21">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C18" s="22" t="s">
+        <x:v>141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="21" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="B21" s="22" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C21" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:2" ht="24.25">
+      <x:c r="A22" s="21">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B22" s="22" t="s">
+        <x:v>79</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3" ht="36.350000000000001">
+      <x:c r="A23" s="21">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C23" s="22" t="s">
+        <x:v>82</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:2" ht="24.25">
+      <x:c r="A24" s="21">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B24" s="22" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:3" ht="24.25">
+      <x:c r="B25" s="22" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C25" s="22" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3" ht="24.25">
+      <x:c r="A27" s="21" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="B27" s="22" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C27" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:2" ht="24.25">
+      <x:c r="A28" s="21">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B28" s="22" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="21">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C29" s="22" t="s">
+        <x:v>99</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:2" ht="48.450000000000003">
+      <x:c r="A30" s="21">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B30" s="22" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3" ht="36.350000000000001">
+      <x:c r="A31" s="21">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C31" s="22" t="s">
+        <x:v>164</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="2:3" ht="36.350000000000001">
+      <x:c r="B32" s="22" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C32" s="22" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3" ht="24.25">
+      <x:c r="A34" s="21" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B34" s="22" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C34" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:2" ht="24.25">
+      <x:c r="A35" s="21">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B35" s="22" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3" ht="36.350000000000001">
+      <x:c r="A36" s="21">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C36" s="22" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:2">
+      <x:c r="A37" s="21">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B37" s="22" t="s">
+        <x:v>158</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3" ht="36.350000000000001">
+      <x:c r="A38" s="21">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C38" s="22" t="s">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:2" ht="24.25">
+      <x:c r="A39" s="21">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B39" s="22" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="21">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C40" s="22" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:2">
+      <x:c r="A41" s="21">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B41" s="22" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3" ht="36.350000000000001">
+      <x:c r="A42" s="21">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C42" s="22" t="s">
+        <x:v>166</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:2" ht="36.350000000000001">
+      <x:c r="A43" s="21">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B43" s="22" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:2">
+      <x:c r="A44" s="21">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B44" s="22" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3" ht="48.450000000000003">
+      <x:c r="A45" s="21">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C45" s="22" t="s">
+        <x:v>152</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="2:3" ht="24.25">
+      <x:c r="B46" s="22" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C46" s="22" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:3" ht="36.350000000000001">
+      <x:c r="A48" s="21" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B48" s="22" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C48" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:2" ht="24.25">
+      <x:c r="A49" s="21">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B49" s="22" t="s">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:3" ht="72.650000000000006">
+      <x:c r="A50" s="21">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C50" s="22" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:3" ht="24.25">
+      <x:c r="A52" s="21" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="B52" s="22" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C52" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:2">
+      <x:c r="A53" s="21">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B53" s="22" t="s">
+        <x:v>92</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:3" ht="24.25">
+      <x:c r="A54" s="21">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C54" s="22" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:2" ht="24.25">
+      <x:c r="A55" s="21">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B55" s="22" t="s">
+        <x:v>77</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:3" ht="24.25">
+      <x:c r="A56" s="21">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C56" s="22" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:2">
+      <x:c r="A57" s="21">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B57" s="22" t="s">
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:3" ht="48.450000000000003">
+      <x:c r="A58" s="21">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C58" s="22" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:2">
+      <x:c r="A59" s="21">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B59" s="22" t="s">
+        <x:v>145</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:3" ht="24.25">
+      <x:c r="A60" s="21">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C60" s="22" t="s">
+        <x:v>84</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:2">
+      <x:c r="A61" s="21">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B61" s="22" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:3" ht="24.25">
+      <x:c r="A62" s="21">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C62" s="22" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:3" ht="24.25">
+      <x:c r="A66" s="21" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B66" s="22" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C66" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:2" ht="36.350000000000001">
+      <x:c r="A67" s="21">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B67" s="22" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:3" ht="96.849999999999994">
+      <x:c r="A68" s="21">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="C68" s="22" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:2">
+      <x:c r="A69" s="21">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B69" s="22" t="s">
+        <x:v>59</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:3" ht="24.25">
+      <x:c r="A70" s="21">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C70" s="22" t="s">
+        <x:v>168</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:2">
+      <x:c r="A71" s="21">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B71" s="22" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:3">
+      <x:c r="A72" s="21">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C72" s="22" t="s">
+        <x:v>167</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:2">
+      <x:c r="A73" s="21">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B73" s="22" t="s">
+        <x:v>146</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:3" ht="36.350000000000001">
+      <x:c r="A74" s="21">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C74" s="22" t="s">
+        <x:v>165</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="2:3" ht="24.25">
+      <x:c r="B75" s="22" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C75" s="22" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="2:3" ht="24.25">
+      <x:c r="B76" s="22" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C76" s="22" t="s">
+        <x:v>35</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:3" ht="24.25">
+      <x:c r="A78" s="21" t="s">
         <x:v>139</x:v>
       </x:c>
-      <x:c r="B1" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C1" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:2">
-      <x:c r="A2">
+      <x:c r="B78" s="22" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C78" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:2" ht="24.25">
+      <x:c r="A79" s="21">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:3">
-      <x:c r="A3">
+      <x:c r="B79" s="22" t="s">
+        <x:v>78</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:3" ht="48.450000000000003">
+      <x:c r="A80" s="21">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C3" t="s">
+      <x:c r="C80" s="22" t="s">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:2" ht="24.25">
+      <x:c r="A81" s="21">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B81" s="22" t="s">
+        <x:v>68</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:3">
+      <x:c r="A82" s="21">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C82" s="22" t="s">
+        <x:v>98</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:2">
+      <x:c r="A83" s="21">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B83" s="22" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:3">
+      <x:c r="A84" s="21">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C84" s="22" t="s">
+        <x:v>101</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:2">
+      <x:c r="A85" s="21">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B85" s="22" t="s">
         <x:v>160</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:2">
-      <x:c r="A4">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" t="s">
-        <x:v>138</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:2">
-      <x:c r="A5">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B5" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:3" ht="32.75">
-      <x:c r="A6">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C6" s="17" t="s">
+    <x:row r="86" spans="1:3">
+      <x:c r="A86" s="21">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C86" s="22" t="s">
+        <x:v>161</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:2">
+      <x:c r="A87" s="21">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B87" s="22" t="s">
+        <x:v>156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:3" ht="36.350000000000001">
+      <x:c r="A88" s="21">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C88" s="22" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:2" ht="24.25">
+      <x:c r="A89" s="21">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B89" s="22" t="s">
+        <x:v>91</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:3">
+      <x:c r="A90" s="21">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C90" s="22" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="2:3" ht="24.25">
+      <x:c r="B91" s="22" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C91" s="22" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="2:3" ht="36.350000000000001">
+      <x:c r="B92" s="22" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C92" s="22" t="s">
+        <x:v>86</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:3" ht="24.25">
+      <x:c r="A95" s="21" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B95" s="22" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C95" s="22" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:2" ht="24.25">
+      <x:c r="A96" s="21">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B96" s="22" t="s">
         <x:v>16</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:2">
-      <x:c r="A7">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B7" t="s">
-        <x:v>76</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:3">
-      <x:c r="A8">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C8" t="s">
-        <x:v>61</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:2">
-      <x:c r="A9">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B9" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:3">
-      <x:c r="A10">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="C10" t="s">
-        <x:v>128</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" t="s">
-        <x:v>136</x:v>
-      </x:c>
-      <x:c r="B14" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C14" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:2">
-      <x:c r="A15">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B15" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16">
+    <x:row r="97" spans="1:3" ht="72.650000000000006">
+      <x:c r="A97" s="21">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C16" t="s">
-        <x:v>128</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:2">
-      <x:c r="B17" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="3:3">
-      <x:c r="C18" t="s">
-        <x:v>161</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:3">
-      <x:c r="A21" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="B21" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C21" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:2">
-      <x:c r="A22">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B22" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:3" ht="32.75">
-      <x:c r="A23">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C23" s="17" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:2">
-      <x:c r="A24">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B24" t="s">
-        <x:v>45</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="2:3">
-      <x:c r="B25" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C25" t="s">
-        <x:v>82</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:3">
-      <x:c r="A27" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="B27" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C27" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:2">
-      <x:c r="A28">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B28" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:3">
-      <x:c r="A29">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C29" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:2" ht="49.149999999999999">
-      <x:c r="A30">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B30" s="17" t="s">
-        <x:v>165</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:3">
-      <x:c r="A31">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C31" t="s">
-        <x:v>155</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="2:3" ht="32.75">
-      <x:c r="B32" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C32" s="17" t="s">
-        <x:v>69</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="34" spans="1:3">
-      <x:c r="A34" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="B34" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C34" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:2">
-      <x:c r="A35">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B35" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:3" ht="32.75">
-      <x:c r="A36">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C36" s="17" t="s">
-        <x:v>14</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:2">
-      <x:c r="A37">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B37" s="17" t="s">
-        <x:v>135</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:3" ht="32.75">
-      <x:c r="A38">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C38" s="17" t="s">
-        <x:v>154</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:2">
-      <x:c r="A39">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B39" s="17" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:3">
-      <x:c r="A40">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C40" t="s">
-        <x:v>133</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:2">
-      <x:c r="A41">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B41" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:3" ht="32.75">
-      <x:c r="A42">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C42" s="17" t="s">
-        <x:v>157</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:2" ht="32.75">
-      <x:c r="A43">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B43" s="17" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="44" spans="1:2">
-      <x:c r="A44">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B44" t="s">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="45" spans="1:3" ht="32.75">
-      <x:c r="A45">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C45" s="17" t="s">
-        <x:v>97</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="46" spans="2:3">
-      <x:c r="B46" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="C46" s="17" t="s">
-        <x:v>80</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="48" spans="1:3">
-      <x:c r="A48" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="B48" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C48" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="49" spans="1:2">
-      <x:c r="A49">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B49" t="s">
-        <x:v>77</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="50" spans="1:3" ht="49.149999999999999">
-      <x:c r="A50">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C50" s="17" t="s">
-        <x:v>21</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="51" spans="2:2">
-      <x:c r="B51" s="17"/>
-    </x:row>
-    <x:row r="52" spans="1:3">
-      <x:c r="A52" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="B52" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C52" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="53" spans="1:2">
-      <x:c r="A53">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B53" t="s">
-        <x:v>162</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="54" spans="1:3">
-      <x:c r="A54">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C54" t="s">
-        <x:v>56</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="55" spans="1:2">
-      <x:c r="A55">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B55" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="56" spans="1:3">
-      <x:c r="A56">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C56" t="s">
-        <x:v>58</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:2">
-      <x:c r="A57">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B57" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:3" ht="32.75">
-      <x:c r="A58">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C58" s="17" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:2">
-      <x:c r="A59">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B59" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="60" spans="1:3">
-      <x:c r="A60">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C60" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="61" spans="1:2">
-      <x:c r="A61">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B61" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:3">
-      <x:c r="A62">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C62" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="66" spans="1:3">
-      <x:c r="A66" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="B66" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C66" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="67" spans="1:2" ht="32.75">
-      <x:c r="A67">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B67" s="17" t="s">
+      <x:c r="C97" s="22" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:3" ht="49.149999999999999">
-      <x:c r="A68">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C68" s="17" t="s">
-        <x:v>170</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="69" spans="1:2">
-      <x:c r="A69">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B69" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="70" spans="1:3">
-      <x:c r="A70">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C70" t="s">
-        <x:v>164</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="71" spans="1:2">
-      <x:c r="A71">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B71" t="s">
-        <x:v>148</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="72" spans="1:3">
-      <x:c r="A72">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C72" s="17" t="s">
-        <x:v>163</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="73" spans="1:2">
-      <x:c r="A73">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B73" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="74" spans="1:3">
-      <x:c r="A74">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C74" t="s">
-        <x:v>156</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="75" spans="2:3">
-      <x:c r="B75" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C75" s="17" t="s">
-        <x:v>81</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="2:3">
-      <x:c r="B76" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C76" s="17" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="78" spans="1:3">
-      <x:c r="A78" t="s">
-        <x:v>140</x:v>
-      </x:c>
-      <x:c r="B78" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C78" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="79" spans="1:2">
-      <x:c r="A79">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B79" s="17" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="80" spans="1:3" ht="32.75">
-      <x:c r="A80">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C80" s="17" t="s">
-        <x:v>0</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:2">
-      <x:c r="A81">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B81" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:3">
-      <x:c r="A82">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C82" t="s">
-        <x:v>143</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="83" spans="1:2">
-      <x:c r="A83">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B83" t="s">
-        <x:v>144</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="84" spans="1:3">
-      <x:c r="A84">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C84" s="17" t="s">
-        <x:v>145</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:2">
-      <x:c r="A85">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B85" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="86" spans="1:3">
-      <x:c r="A86">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C86" t="s">
-        <x:v>134</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="87" spans="1:2">
-      <x:c r="A87">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B87" t="s">
-        <x:v>129</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:3">
-      <x:c r="A88">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C88" t="s">
-        <x:v>126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:2">
-      <x:c r="A89">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B89" t="s">
-        <x:v>149</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:3">
-      <x:c r="A90">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C90" t="s">
-        <x:v>146</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="91" spans="2:3">
-      <x:c r="B91" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C91" s="17" t="s">
-        <x:v>32</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="2:3" ht="32.75">
-      <x:c r="B92" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C92" s="17" t="s">
-        <x:v>147</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="95" spans="1:3">
-      <x:c r="A95" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="B95" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="C95" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:2">
-      <x:c r="A96">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B96" s="17" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:3" ht="32.75">
-      <x:c r="A97">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C97" s="17" t="s">
-        <x:v>83</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51180553436279297" footer="0.51180553436279297"/>
-  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <x:pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>